--- a/pred_ohlcv/54_21/2019-10-29 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 RNT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>1865173.551996849</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2020108.683996849</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5286677.884954352</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5350719.237624411</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>10873255.23759543</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>11569749.03469543</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>12060541.61033949</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>11439831.96043949</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>11439831.96043949</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>10780203.25043949</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>12228317.15693949</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>12114760.49143949</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>11661951.51993949</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>12780147.1889281</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>12714679.4791281</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>12816795.5124281</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>12784467.83046446</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>12878315.09906446</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>12694388.43546446</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>12016222.16396446</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>11104753.84236446</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>11104753.84236446</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10741802.27451242</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10164527.07621242</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>9874877.288155844</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>11416181.1068326</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>10226206.87485329</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>9960892.626853293</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10337454.82851704</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>10268785.31581704</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>10733313.90951703</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 RNT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>1865173.551996849</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2020108.683996849</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2662331.896979827</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2782860.669279827</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5508303.993554352</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5286677.884954352</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>5317464.847254352</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>5350719.237624411</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>12228317.15693949</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>12114760.49143949</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>12433616.86293949</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>12095852.48453949</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>11661951.51993949</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>12026740.74823949</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>12573377.32653949</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>12101788.46323949</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>12077217.21743949</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>11630462.37413949</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>12143129.28933949</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>12457286.62989174</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>12366909.22649174</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>12780147.1889281</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>12714679.4791281</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>12816795.5124281</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>12784467.83046446</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>12878351.06906446</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>12878315.09906446</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>12694388.43546446</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>12016222.16396446</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>11104753.84236446</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>11104753.84236446</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>10741802.27451242</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>10164527.07621242</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>11355712.0527326</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>11196531.50000272</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>10578007.20345329</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>10257556.61105329</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
